--- a/resources/experiment 1/metrics/R2/average time/Retinopatía proliferativa.xlsx
+++ b/resources/experiment 1/metrics/R2/average time/Retinopatía proliferativa.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9938756751279364</v>
+        <v>0.9925015593111244</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9938756751279364</v>
+        <v>0.9921632867163815</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9938756751279364</v>
+        <v>0.9920836734508867</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9954349937410756</v>
+        <v>0.9929776543659541</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9954349937410756</v>
+        <v>0.9908661712402845</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9954349937410756</v>
+        <v>0.9908674518626172</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9832650024180958</v>
+        <v>0.992733121423409</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9832650024180958</v>
+        <v>0.99477946551103</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9832650024180958</v>
+        <v>0.9941968002095911</v>
       </c>
     </row>
   </sheetData>
